--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa2-Tlr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H2">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I2">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J2">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N2">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O2">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P2">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q2">
-        <v>88.81332110109867</v>
+        <v>240.4112782647433</v>
       </c>
       <c r="R2">
-        <v>799.3198899098879</v>
+        <v>2163.70150438269</v>
       </c>
       <c r="S2">
-        <v>0.0008502788961119237</v>
+        <v>0.001973119674243606</v>
       </c>
       <c r="T2">
-        <v>0.0008931272559453325</v>
+        <v>0.002186973088281002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H3">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I3">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J3">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P3">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q3">
-        <v>244.5103844716871</v>
+        <v>238.9467099055474</v>
       </c>
       <c r="R3">
-        <v>2200.593460245184</v>
+        <v>2150.520389149926</v>
       </c>
       <c r="S3">
-        <v>0.002340887799475797</v>
+        <v>0.001961099569926278</v>
       </c>
       <c r="T3">
-        <v>0.002458852861551584</v>
+        <v>0.002173650204219039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H4">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I4">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J4">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N4">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O4">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P4">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q4">
-        <v>6281.985692725269</v>
+        <v>8933.45539395456</v>
       </c>
       <c r="R4">
-        <v>56537.87123452742</v>
+        <v>80401.09854559104</v>
       </c>
       <c r="S4">
-        <v>0.06014232768213939</v>
+        <v>0.07331925824785401</v>
       </c>
       <c r="T4">
-        <v>0.06317309806762933</v>
+        <v>0.08126584856149216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H5">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I5">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J5">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N5">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O5">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P5">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q5">
-        <v>26.92466119338666</v>
+        <v>139.895732043586</v>
       </c>
       <c r="R5">
-        <v>161.54796716032</v>
+        <v>839.374392261516</v>
       </c>
       <c r="S5">
-        <v>0.0002577706915344387</v>
+        <v>0.001148161697031298</v>
       </c>
       <c r="T5">
-        <v>0.0001805070716177338</v>
+        <v>0.0008484022417832927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.60110933333333</v>
+        <v>94.403014</v>
       </c>
       <c r="H6">
-        <v>289.803328</v>
+        <v>283.209042</v>
       </c>
       <c r="I6">
-        <v>0.1481994495772009</v>
+        <v>0.1353009388150703</v>
       </c>
       <c r="J6">
-        <v>0.1555774554226776</v>
+        <v>0.1495411131326121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N6">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O6">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P6">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q6">
-        <v>8837.493077677762</v>
+        <v>6932.794565896192</v>
       </c>
       <c r="R6">
-        <v>79537.43769909984</v>
+        <v>62395.15109306573</v>
       </c>
       <c r="S6">
-        <v>0.08460818450793929</v>
+        <v>0.05689929962601516</v>
       </c>
       <c r="T6">
-        <v>0.08887187016593358</v>
+        <v>0.06306623903683661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H7">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I7">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J7">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N7">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O7">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P7">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q7">
-        <v>204.1624069221387</v>
+        <v>565.5210275136844</v>
       </c>
       <c r="R7">
-        <v>1837.461662299248</v>
+        <v>5089.68924762316</v>
       </c>
       <c r="S7">
-        <v>0.001954605275797552</v>
+        <v>0.004641382357931376</v>
       </c>
       <c r="T7">
-        <v>0.002053104286619324</v>
+        <v>0.005144431147142331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H8">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I8">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J8">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P8">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q8">
-        <v>562.0759137514073</v>
+        <v>562.0759137514071</v>
       </c>
       <c r="R8">
-        <v>5058.683223762665</v>
+        <v>5058.683223762664</v>
       </c>
       <c r="S8">
-        <v>0.005381189235470841</v>
+        <v>0.004613107387666166</v>
       </c>
       <c r="T8">
-        <v>0.005652365121109628</v>
+        <v>0.005113091639534582</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H9">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I9">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J9">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N9">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O9">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P9">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q9">
-        <v>14440.91160398419</v>
+        <v>21014.22574723584</v>
       </c>
       <c r="R9">
-        <v>129968.2044358577</v>
+        <v>189128.0317251226</v>
       </c>
       <c r="S9">
-        <v>0.1382540617246848</v>
+        <v>0.1724693723195776</v>
       </c>
       <c r="T9">
-        <v>0.1452211401883491</v>
+        <v>0.1911621888622779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H10">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I10">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J10">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N10">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O10">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P10">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q10">
-        <v>61.89390923178667</v>
+        <v>329.0776485242374</v>
       </c>
       <c r="R10">
-        <v>371.36345539072</v>
+        <v>1974.465891145424</v>
       </c>
       <c r="S10">
-        <v>0.0005925584604335233</v>
+        <v>0.002700828294511079</v>
       </c>
       <c r="T10">
-        <v>0.0004149462912888136</v>
+        <v>0.001995702160818978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>222.0648293333334</v>
+        <v>222.0648293333333</v>
       </c>
       <c r="H11">
-        <v>666.1944880000001</v>
+        <v>666.194488</v>
       </c>
       <c r="I11">
-        <v>0.340678132008771</v>
+        <v>0.3182692862603769</v>
       </c>
       <c r="J11">
-        <v>0.3576385543082982</v>
+        <v>0.3517665417558616</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N11">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O11">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P11">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q11">
-        <v>20315.46434168997</v>
+        <v>16308.05815245262</v>
       </c>
       <c r="R11">
-        <v>182839.1790752097</v>
+        <v>146772.5233720736</v>
       </c>
       <c r="S11">
-        <v>0.1944957173123842</v>
+        <v>0.1338445959006908</v>
       </c>
       <c r="T11">
-        <v>0.2042969984209312</v>
+        <v>0.1483511279460879</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H12">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I12">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J12">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N12">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O12">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P12">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q12">
-        <v>79.94664755630468</v>
+        <v>233.7899993891389</v>
       </c>
       <c r="R12">
-        <v>719.519828006742</v>
+        <v>2104.10999450225</v>
       </c>
       <c r="S12">
-        <v>0.0007653913443304719</v>
+        <v>0.001918777067222808</v>
       </c>
       <c r="T12">
-        <v>0.0008039619402669511</v>
+        <v>0.002126740644880388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H13">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I13">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J13">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P13">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q13">
-        <v>220.0997022615868</v>
+        <v>232.3657673885722</v>
       </c>
       <c r="R13">
-        <v>1980.897320354281</v>
+        <v>2091.29190649715</v>
       </c>
       <c r="S13">
-        <v>0.002107185381126684</v>
+        <v>0.001907088014191316</v>
       </c>
       <c r="T13">
-        <v>0.002213373407030986</v>
+        <v>0.002113784692567378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H14">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I14">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J14">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N14">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O14">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P14">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q14">
-        <v>5654.823960004383</v>
+        <v>8687.414942304</v>
       </c>
       <c r="R14">
-        <v>50893.41564003945</v>
+        <v>78186.73448073599</v>
       </c>
       <c r="S14">
-        <v>0.05413802135545076</v>
+        <v>0.07129993844174699</v>
       </c>
       <c r="T14">
-        <v>0.05686621492854136</v>
+        <v>0.07902766801408981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H15">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I15">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J15">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N15">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O15">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P15">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q15">
-        <v>24.23663896714667</v>
+        <v>136.0427985953167</v>
       </c>
       <c r="R15">
-        <v>145.41983380288</v>
+        <v>816.2567915719</v>
       </c>
       <c r="S15">
-        <v>0.0002320361672207952</v>
+        <v>0.001116539641505434</v>
       </c>
       <c r="T15">
-        <v>0.0001624861569990889</v>
+        <v>0.000825036000889431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.95694233333334</v>
+        <v>91.80301666666666</v>
       </c>
       <c r="H16">
-        <v>260.870827</v>
+        <v>275.40905</v>
       </c>
       <c r="I16">
-        <v>0.1334039648162674</v>
+        <v>0.131574552705018</v>
       </c>
       <c r="J16">
-        <v>0.1400453878109693</v>
+        <v>0.1454225317558724</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N16">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O16">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P16">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q16">
-        <v>7955.202390845468</v>
+        <v>6741.85524499826</v>
       </c>
       <c r="R16">
-        <v>71596.82151760921</v>
+        <v>60676.69720498434</v>
       </c>
       <c r="S16">
-        <v>0.07616133056813867</v>
+        <v>0.05533220954035144</v>
       </c>
       <c r="T16">
-        <v>0.07999935137813091</v>
+        <v>0.06132930240344545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H17">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I17">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J17">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N17">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O17">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P17">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q17">
-        <v>85.25995625312001</v>
+        <v>507.6097775281567</v>
       </c>
       <c r="R17">
-        <v>511.5597375187201</v>
+        <v>3045.658665168939</v>
       </c>
       <c r="S17">
-        <v>0.0008162597748476384</v>
+        <v>0.004166089237195776</v>
       </c>
       <c r="T17">
-        <v>0.0005715958659226118</v>
+        <v>0.00307841609543764</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H18">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I18">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J18">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P18">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q18">
-        <v>234.7276785174934</v>
+        <v>504.5174549701127</v>
       </c>
       <c r="R18">
-        <v>1408.36607110496</v>
+        <v>3027.104729820676</v>
       </c>
       <c r="S18">
-        <v>0.002247230358040286</v>
+        <v>0.004140709718720503</v>
       </c>
       <c r="T18">
-        <v>0.001573650475023569</v>
+        <v>0.003059662604160694</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H19">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I19">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J19">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N19">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O19">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P19">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q19">
-        <v>6030.647415321761</v>
+        <v>18862.29854861184</v>
       </c>
       <c r="R19">
-        <v>36183.88449193056</v>
+        <v>113173.791291671</v>
       </c>
       <c r="S19">
-        <v>0.0577360711610252</v>
+        <v>0.1548079301285453</v>
       </c>
       <c r="T19">
-        <v>0.04043038822587549</v>
+        <v>0.114391026374144</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H20">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I20">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J20">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N20">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O20">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P20">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q20">
-        <v>25.8474225152</v>
+        <v>295.378993582754</v>
       </c>
       <c r="R20">
-        <v>103.3896900608</v>
+        <v>1181.515974331016</v>
       </c>
       <c r="S20">
-        <v>0.0002474574490750675</v>
+        <v>0.00242425441852442</v>
       </c>
       <c r="T20">
-        <v>0.0001155233985075122</v>
+        <v>0.001194223710619106</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>92.73616000000001</v>
+        <v>199.324646</v>
       </c>
       <c r="H21">
-        <v>185.47232</v>
+        <v>398.649292</v>
       </c>
       <c r="I21">
-        <v>0.14227008326043</v>
+        <v>0.2856774438661625</v>
       </c>
       <c r="J21">
-        <v>0.09956859983657813</v>
+        <v>0.2104963120323245</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N21">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O21">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P21">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q21">
-        <v>8483.910564861602</v>
+        <v>14638.05830010875</v>
       </c>
       <c r="R21">
-        <v>50903.46338916961</v>
+        <v>87828.34980065248</v>
       </c>
       <c r="S21">
-        <v>0.0812230645174418</v>
+        <v>0.1201384603631766</v>
       </c>
       <c r="T21">
-        <v>0.05687744187124894</v>
+        <v>0.08877298324796308</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>153.4727276666667</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H22">
-        <v>460.4181829999999</v>
+        <v>270.392173</v>
       </c>
       <c r="I22">
-        <v>0.2354483703373308</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J22">
-        <v>0.2471700026214768</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N22">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O22">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P22">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q22">
-        <v>141.1000633076353</v>
+        <v>229.5312589056094</v>
       </c>
       <c r="R22">
-        <v>1269.900569768718</v>
+        <v>2065.781330150485</v>
       </c>
       <c r="S22">
-        <v>0.0013508604856018</v>
+        <v>0.001883824444799262</v>
       </c>
       <c r="T22">
-        <v>0.001418934803847822</v>
+        <v>0.002087999738485825</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>153.4727276666667</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H23">
-        <v>460.4181829999999</v>
+        <v>270.392173</v>
       </c>
       <c r="I23">
-        <v>0.2354483703373308</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J23">
-        <v>0.2471700026214768</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.593403</v>
       </c>
       <c r="O23">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P23">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q23">
-        <v>388.4600902274166</v>
+        <v>228.1329708483021</v>
       </c>
       <c r="R23">
-        <v>3496.140812046749</v>
+        <v>2053.196737634719</v>
       </c>
       <c r="S23">
-        <v>0.003719030125290745</v>
+        <v>0.001872348320650482</v>
       </c>
       <c r="T23">
-        <v>0.003906444327581811</v>
+        <v>0.002075279793011269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>153.4727276666667</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H24">
-        <v>460.4181829999999</v>
+        <v>270.392173</v>
       </c>
       <c r="I24">
-        <v>0.2354483703373308</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J24">
-        <v>0.2471700026214768</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N24">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O24">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P24">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q24">
-        <v>9980.356189272488</v>
+        <v>8529.16417961664</v>
       </c>
       <c r="R24">
-        <v>89823.20570345238</v>
+        <v>76762.47761654976</v>
       </c>
       <c r="S24">
-        <v>0.09554970063284166</v>
+        <v>0.07000113209798373</v>
       </c>
       <c r="T24">
-        <v>0.1003647653997221</v>
+        <v>0.07758809262604965</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>153.4727276666667</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H25">
-        <v>460.4181829999999</v>
+        <v>270.392173</v>
       </c>
       <c r="I25">
-        <v>0.2354483703373308</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J25">
-        <v>0.2471700026214768</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N25">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O25">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P25">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q25">
-        <v>42.77591865525333</v>
+        <v>133.5646302588423</v>
       </c>
       <c r="R25">
-        <v>256.6555119315199</v>
+        <v>801.3877815530541</v>
       </c>
       <c r="S25">
-        <v>0.0004095270894437063</v>
+        <v>0.0010962006510218</v>
       </c>
       <c r="T25">
-        <v>0.0002867763407219667</v>
+        <v>0.0008100070679729777</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>153.4727276666667</v>
+        <v>90.13072433333333</v>
       </c>
       <c r="H26">
-        <v>460.4181829999999</v>
+        <v>270.392173</v>
       </c>
       <c r="I26">
-        <v>0.2354483703373308</v>
+        <v>0.1291777783533723</v>
       </c>
       <c r="J26">
-        <v>0.2471700026214768</v>
+        <v>0.1427735013233293</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N26">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O26">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P26">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q26">
-        <v>14040.35810485749</v>
+        <v>6619.044979627673</v>
       </c>
       <c r="R26">
-        <v>126363.2229437174</v>
+        <v>59571.40481664907</v>
       </c>
       <c r="S26">
-        <v>0.1344192520041528</v>
+        <v>0.05432427283891708</v>
       </c>
       <c r="T26">
-        <v>0.1411930817496031</v>
+        <v>0.06021212209780956</v>
       </c>
     </row>
   </sheetData>
